--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AC/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AC/20/seed4/result_data_KNN.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-13.818</v>
+        <v>-12.591</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.922</v>
+        <v>-12.634</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.098</v>
+        <v>-12.634</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.868</v>
+        <v>-20.775</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.83</v>
+        <v>-12.917</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -638,7 +638,7 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-13.676</v>
+        <v>-12.628</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.25</v>
+        <v>-21.832</v>
       </c>
       <c r="B13" t="n">
         <v>4.42</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.198</v>
+        <v>-20.916</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.28</v>
+        <v>-21.577</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.342</v>
+        <v>-21.682</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.142</v>
+        <v>-12.824</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
